--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>294.401690129211</v>
+        <v>294.7519835</v>
       </c>
       <c r="H2">
-        <v>294.401690129211</v>
+        <v>589.503967</v>
       </c>
       <c r="I2">
-        <v>0.556913463480305</v>
+        <v>0.5479678589903301</v>
       </c>
       <c r="J2">
-        <v>0.556913463480305</v>
+        <v>0.4638809894457476</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>234.538651801622</v>
+        <v>235.101616</v>
       </c>
       <c r="N2">
-        <v>234.538651801622</v>
+        <v>470.203232</v>
       </c>
       <c r="O2">
-        <v>0.4253153856435704</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P2">
-        <v>0.4253153856435704</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q2">
-        <v>69048.57549102402</v>
+        <v>69296.66764005533</v>
       </c>
       <c r="R2">
-        <v>69048.57549102402</v>
+        <v>277186.6705602213</v>
       </c>
       <c r="S2">
-        <v>0.2368638644902224</v>
+        <v>0.2290919521065334</v>
       </c>
       <c r="T2">
-        <v>0.2368638644902224</v>
+        <v>0.1503831692269903</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>294.401690129211</v>
+        <v>294.7519835</v>
       </c>
       <c r="H3">
-        <v>294.401690129211</v>
+        <v>589.503967</v>
       </c>
       <c r="I3">
-        <v>0.556913463480305</v>
+        <v>0.5479678589903301</v>
       </c>
       <c r="J3">
-        <v>0.556913463480305</v>
+        <v>0.4638809894457476</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>94.69438057492491</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N3">
-        <v>94.69438057492491</v>
+        <v>0.184044</v>
       </c>
       <c r="O3">
-        <v>0.1717199987427602</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P3">
-        <v>0.1717199987427602</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q3">
-        <v>27878.18568699662</v>
+        <v>18.082444683758</v>
       </c>
       <c r="R3">
-        <v>27878.18568699662</v>
+        <v>108.494668102548</v>
       </c>
       <c r="S3">
-        <v>0.0956331792486642</v>
+        <v>5.977982336723543E-05</v>
       </c>
       <c r="T3">
-        <v>0.0956331792486642</v>
+        <v>5.886203691005726E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>294.401690129211</v>
+        <v>294.7519835</v>
       </c>
       <c r="H4">
-        <v>294.401690129211</v>
+        <v>589.503967</v>
       </c>
       <c r="I4">
-        <v>0.556913463480305</v>
+        <v>0.5479678589903301</v>
       </c>
       <c r="J4">
-        <v>0.556913463480305</v>
+        <v>0.4638809894457476</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>66.6246872012414</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N4">
-        <v>66.6246872012414</v>
+        <v>291.346801</v>
       </c>
       <c r="O4">
-        <v>0.1208180583997979</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P4">
-        <v>0.1208180583997979</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q4">
-        <v>19614.42051637548</v>
+        <v>28625.01582704325</v>
       </c>
       <c r="R4">
-        <v>19614.42051637548</v>
+        <v>171750.0949622596</v>
       </c>
       <c r="S4">
-        <v>0.06728520335439721</v>
+        <v>0.09463313285078072</v>
       </c>
       <c r="T4">
-        <v>0.06728520335439721</v>
+        <v>0.09318025121215091</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>294.401690129211</v>
+        <v>294.7519835</v>
       </c>
       <c r="H5">
-        <v>294.401690129211</v>
+        <v>589.503967</v>
       </c>
       <c r="I5">
-        <v>0.556913463480305</v>
+        <v>0.5479678589903301</v>
       </c>
       <c r="J5">
-        <v>0.556913463480305</v>
+        <v>0.4638809894457476</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>154.092684022355</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N5">
-        <v>154.092684022355</v>
+        <v>206.736805</v>
       </c>
       <c r="O5">
-        <v>0.2794336405807186</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P5">
-        <v>0.2794336405807186</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q5">
-        <v>45365.14661272777</v>
+        <v>20312.02777873424</v>
       </c>
       <c r="R5">
-        <v>45365.14661272777</v>
+        <v>121872.1666724054</v>
       </c>
       <c r="S5">
-        <v>0.1556203565887187</v>
+        <v>0.06715073398973394</v>
       </c>
       <c r="T5">
-        <v>0.1556203565887187</v>
+        <v>0.06611978356576312</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>294.401690129211</v>
+        <v>294.7519835</v>
       </c>
       <c r="H6">
-        <v>294.401690129211</v>
+        <v>589.503967</v>
       </c>
       <c r="I6">
-        <v>0.556913463480305</v>
+        <v>0.5479678589903301</v>
       </c>
       <c r="J6">
-        <v>0.556913463480305</v>
+        <v>0.4638809894457476</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.49602819711562</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N6">
-        <v>1.49602819711562</v>
+        <v>478.929367</v>
       </c>
       <c r="O6">
-        <v>0.002712916633152936</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P6">
-        <v>0.002712916633152936</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q6">
-        <v>440.4332297117949</v>
+        <v>47055.12695988315</v>
       </c>
       <c r="R6">
-        <v>440.4332297117949</v>
+        <v>282330.7617592989</v>
       </c>
       <c r="S6">
-        <v>0.00151085979830253</v>
+        <v>0.1555623272947875</v>
       </c>
       <c r="T6">
-        <v>0.00151085979830253</v>
+        <v>0.1531740131580728</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>25.3986675188927</v>
+        <v>294.7519835</v>
       </c>
       <c r="H7">
-        <v>25.3986675188927</v>
+        <v>589.503967</v>
       </c>
       <c r="I7">
-        <v>0.04804612327301237</v>
+        <v>0.5479678589903301</v>
       </c>
       <c r="J7">
-        <v>0.04804612327301237</v>
+        <v>0.4638809894457476</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>234.538651801622</v>
+        <v>1.508493</v>
       </c>
       <c r="N7">
-        <v>234.538651801622</v>
+        <v>3.016986</v>
       </c>
       <c r="O7">
-        <v>0.4253153856435704</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P7">
-        <v>0.4253153856435704</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q7">
-        <v>5956.969237438741</v>
+        <v>444.6313038458655</v>
       </c>
       <c r="R7">
-        <v>5956.969237438741</v>
+        <v>1778.525215383462</v>
       </c>
       <c r="S7">
-        <v>0.02043475544853978</v>
+        <v>0.001469932925127324</v>
       </c>
       <c r="T7">
-        <v>0.02043475544853978</v>
+        <v>0.0009649102458603703</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.3986675188927</v>
+        <v>28.17806933333334</v>
       </c>
       <c r="H8">
-        <v>25.3986675188927</v>
+        <v>84.53420800000001</v>
       </c>
       <c r="I8">
-        <v>0.04804612327301237</v>
+        <v>0.05238531778385046</v>
       </c>
       <c r="J8">
-        <v>0.04804612327301237</v>
+        <v>0.06652001384929211</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.69438057492491</v>
+        <v>235.101616</v>
       </c>
       <c r="N8">
-        <v>94.69438057492491</v>
+        <v>470.203232</v>
       </c>
       <c r="O8">
-        <v>0.1717199987427602</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P8">
-        <v>0.1717199987427602</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q8">
-        <v>2405.111088130009</v>
+        <v>6624.70963602671</v>
       </c>
       <c r="R8">
-        <v>2405.111088130009</v>
+        <v>39748.25781616026</v>
       </c>
       <c r="S8">
-        <v>0.008250480228036186</v>
+        <v>0.02190101940456179</v>
       </c>
       <c r="T8">
-        <v>0.008250480228036186</v>
+        <v>0.02156477787898177</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.3986675188927</v>
+        <v>28.17806933333334</v>
       </c>
       <c r="H9">
-        <v>25.3986675188927</v>
+        <v>84.53420800000001</v>
       </c>
       <c r="I9">
-        <v>0.04804612327301237</v>
+        <v>0.05238531778385046</v>
       </c>
       <c r="J9">
-        <v>0.04804612327301237</v>
+        <v>0.06652001384929211</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>66.6246872012414</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N9">
-        <v>66.6246872012414</v>
+        <v>0.184044</v>
       </c>
       <c r="O9">
-        <v>0.1208180583997979</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P9">
-        <v>0.1208180583997979</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q9">
-        <v>1692.178278774556</v>
+        <v>1.728668197461334</v>
       </c>
       <c r="R9">
-        <v>1692.178278774556</v>
+        <v>15.558013777152</v>
       </c>
       <c r="S9">
-        <v>0.005804839327482698</v>
+        <v>5.714906436164425E-06</v>
       </c>
       <c r="T9">
-        <v>0.005804839327482698</v>
+        <v>8.440750105178611E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.3986675188927</v>
+        <v>28.17806933333334</v>
       </c>
       <c r="H10">
-        <v>25.3986675188927</v>
+        <v>84.53420800000001</v>
       </c>
       <c r="I10">
-        <v>0.04804612327301237</v>
+        <v>0.05238531778385046</v>
       </c>
       <c r="J10">
-        <v>0.04804612327301237</v>
+        <v>0.06652001384929211</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>154.092684022355</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N10">
-        <v>154.092684022355</v>
+        <v>291.346801</v>
       </c>
       <c r="O10">
-        <v>0.2794336405807186</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P10">
-        <v>0.2794336405807186</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q10">
-        <v>3913.748848577584</v>
+        <v>2736.530119540957</v>
       </c>
       <c r="R10">
-        <v>3913.748848577584</v>
+        <v>24628.77107586861</v>
       </c>
       <c r="S10">
-        <v>0.01342570314196784</v>
+        <v>0.009046856774417071</v>
       </c>
       <c r="T10">
-        <v>0.01342570314196784</v>
+        <v>0.01336194356340984</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.3986675188927</v>
+        <v>28.17806933333334</v>
       </c>
       <c r="H11">
-        <v>25.3986675188927</v>
+        <v>84.53420800000001</v>
       </c>
       <c r="I11">
-        <v>0.04804612327301237</v>
+        <v>0.05238531778385046</v>
       </c>
       <c r="J11">
-        <v>0.04804612327301237</v>
+        <v>0.06652001384929211</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.49602819711562</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N11">
-        <v>1.49602819711562</v>
+        <v>206.736805</v>
       </c>
       <c r="O11">
-        <v>0.002712916633152936</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P11">
-        <v>0.002712916633152936</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q11">
-        <v>37.9971227774281</v>
+        <v>1941.814675013938</v>
       </c>
       <c r="R11">
-        <v>37.9971227774281</v>
+        <v>17476.33207512544</v>
       </c>
       <c r="S11">
-        <v>0.0001303451269858717</v>
+        <v>0.006419559982865888</v>
       </c>
       <c r="T11">
-        <v>0.0001303451269858717</v>
+        <v>0.009481502839256046</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.37794762774794</v>
+        <v>28.17806933333334</v>
       </c>
       <c r="H12">
-        <v>1.37794762774794</v>
+        <v>84.53420800000001</v>
       </c>
       <c r="I12">
-        <v>0.002606634444003258</v>
+        <v>0.05238531778385046</v>
       </c>
       <c r="J12">
-        <v>0.002606634444003258</v>
+        <v>0.06652001384929211</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>234.538651801622</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N12">
-        <v>234.538651801622</v>
+        <v>478.929367</v>
       </c>
       <c r="O12">
-        <v>0.4253153856435704</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P12">
-        <v>0.4253153856435704</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q12">
-        <v>323.1819788652452</v>
+        <v>4498.434969698483</v>
       </c>
       <c r="R12">
-        <v>323.1819788652452</v>
+        <v>40485.91472728634</v>
       </c>
       <c r="S12">
-        <v>0.001108641733783059</v>
+        <v>0.01487164222651352</v>
       </c>
       <c r="T12">
-        <v>0.001108641733783059</v>
+        <v>0.02196498177000269</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.37794762774794</v>
+        <v>28.17806933333334</v>
       </c>
       <c r="H13">
-        <v>1.37794762774794</v>
+        <v>84.53420800000001</v>
       </c>
       <c r="I13">
-        <v>0.002606634444003258</v>
+        <v>0.05238531778385046</v>
       </c>
       <c r="J13">
-        <v>0.002606634444003258</v>
+        <v>0.06652001384929211</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>94.69438057492491</v>
+        <v>1.508493</v>
       </c>
       <c r="N13">
-        <v>94.69438057492491</v>
+        <v>3.016986</v>
       </c>
       <c r="O13">
-        <v>0.1717199987427602</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P13">
-        <v>0.1717199987427602</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q13">
-        <v>130.4838970742784</v>
+        <v>42.50642034284801</v>
       </c>
       <c r="R13">
-        <v>130.4838970742784</v>
+        <v>255.038522057088</v>
       </c>
       <c r="S13">
-        <v>0.0004476112634470749</v>
+        <v>0.0001405244890560244</v>
       </c>
       <c r="T13">
-        <v>0.0004476112634470749</v>
+        <v>0.0001383670475365803</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.37794762774794</v>
+        <v>1.380087333333333</v>
       </c>
       <c r="H14">
-        <v>1.37794762774794</v>
+        <v>4.140262</v>
       </c>
       <c r="I14">
-        <v>0.002606634444003258</v>
+        <v>0.002565694358648279</v>
       </c>
       <c r="J14">
-        <v>0.002606634444003258</v>
+        <v>0.003257974399898533</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>66.6246872012414</v>
+        <v>235.101616</v>
       </c>
       <c r="N14">
-        <v>66.6246872012414</v>
+        <v>470.203232</v>
       </c>
       <c r="O14">
-        <v>0.1208180583997979</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P14">
-        <v>0.1208180583997979</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q14">
-        <v>91.80532967839913</v>
+        <v>324.4607622877973</v>
       </c>
       <c r="R14">
-        <v>91.80532967839913</v>
+        <v>1946.764573726784</v>
       </c>
       <c r="S14">
-        <v>0.0003149285124825104</v>
+        <v>0.00107265402429712</v>
       </c>
       <c r="T14">
-        <v>0.0003149285124825104</v>
+        <v>0.001056185803394394</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.37794762774794</v>
+        <v>1.380087333333333</v>
       </c>
       <c r="H15">
-        <v>1.37794762774794</v>
+        <v>4.140262</v>
       </c>
       <c r="I15">
-        <v>0.002606634444003258</v>
+        <v>0.002565694358648279</v>
       </c>
       <c r="J15">
-        <v>0.002606634444003258</v>
+        <v>0.003257974399898533</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>154.092684022355</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N15">
-        <v>154.092684022355</v>
+        <v>0.184044</v>
       </c>
       <c r="O15">
-        <v>0.2794336405807186</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P15">
-        <v>0.2794336405807186</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q15">
-        <v>212.331648401917</v>
+        <v>0.08466559772533333</v>
       </c>
       <c r="R15">
-        <v>212.331648401917</v>
+        <v>0.7619903795280001</v>
       </c>
       <c r="S15">
-        <v>0.0007283813523509278</v>
+        <v>2.799010070716814E-07</v>
       </c>
       <c r="T15">
-        <v>0.0007283813523509278</v>
+        <v>4.134056228688745E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.37794762774794</v>
+        <v>1.380087333333333</v>
       </c>
       <c r="H16">
-        <v>1.37794762774794</v>
+        <v>4.140262</v>
       </c>
       <c r="I16">
-        <v>0.002606634444003258</v>
+        <v>0.002565694358648279</v>
       </c>
       <c r="J16">
-        <v>0.002606634444003258</v>
+        <v>0.003257974399898533</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.49602819711562</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N16">
-        <v>1.49602819711562</v>
+        <v>291.346801</v>
       </c>
       <c r="O16">
-        <v>0.002712916633152936</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P16">
-        <v>0.002712916633152936</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q16">
-        <v>2.061448505259496</v>
+        <v>134.0280098890958</v>
       </c>
       <c r="R16">
-        <v>2.061448505259496</v>
+        <v>1206.252089001862</v>
       </c>
       <c r="S16">
-        <v>7.071581939685796E-06</v>
+        <v>0.0004430911249864856</v>
       </c>
       <c r="T16">
-        <v>7.071581939685796E-06</v>
+        <v>0.0006544326668528125</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.63472796250509</v>
+        <v>1.380087333333333</v>
       </c>
       <c r="H17">
-        <v>1.63472796250509</v>
+        <v>4.140262</v>
       </c>
       <c r="I17">
-        <v>0.003092380383574708</v>
+        <v>0.002565694358648279</v>
       </c>
       <c r="J17">
-        <v>0.003092380383574708</v>
+        <v>0.003257974399898533</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>234.538651801622</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N17">
-        <v>234.538651801622</v>
+        <v>206.736805</v>
       </c>
       <c r="O17">
-        <v>0.4253153856435704</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P17">
-        <v>0.4253153856435704</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q17">
-        <v>383.4068923883563</v>
+        <v>95.10494863810109</v>
       </c>
       <c r="R17">
-        <v>383.4068923883563</v>
+        <v>855.94453774291</v>
       </c>
       <c r="S17">
-        <v>0.001315236955396689</v>
+        <v>0.0003144130746901927</v>
       </c>
       <c r="T17">
-        <v>0.001315236955396689</v>
+        <v>0.0004643789400412186</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.63472796250509</v>
+        <v>1.380087333333333</v>
       </c>
       <c r="H18">
-        <v>1.63472796250509</v>
+        <v>4.140262</v>
       </c>
       <c r="I18">
-        <v>0.003092380383574708</v>
+        <v>0.002565694358648279</v>
       </c>
       <c r="J18">
-        <v>0.003092380383574708</v>
+        <v>0.003257974399898533</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>94.69438057492491</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N18">
-        <v>94.69438057492491</v>
+        <v>478.929367</v>
       </c>
       <c r="O18">
-        <v>0.1717199987427602</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P18">
-        <v>0.1717199987427602</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q18">
-        <v>154.7995518179285</v>
+        <v>220.3214509860171</v>
       </c>
       <c r="R18">
-        <v>154.7995518179285</v>
+        <v>1982.893058874154</v>
       </c>
       <c r="S18">
-        <v>0.0005310235555795852</v>
+        <v>0.0007283737157391869</v>
       </c>
       <c r="T18">
-        <v>0.0005310235555795852</v>
+        <v>0.00107578673184038</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.63472796250509</v>
+        <v>1.380087333333333</v>
       </c>
       <c r="H19">
-        <v>1.63472796250509</v>
+        <v>4.140262</v>
       </c>
       <c r="I19">
-        <v>0.003092380383574708</v>
+        <v>0.002565694358648279</v>
       </c>
       <c r="J19">
-        <v>0.003092380383574708</v>
+        <v>0.003257974399898533</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>66.6246872012414</v>
+        <v>1.508493</v>
       </c>
       <c r="N19">
-        <v>66.6246872012414</v>
+        <v>3.016986</v>
       </c>
       <c r="O19">
-        <v>0.1208180583997979</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P19">
-        <v>0.1208180583997979</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q19">
-        <v>108.9132391610243</v>
+        <v>2.081852081722</v>
       </c>
       <c r="R19">
-        <v>108.9132391610243</v>
+        <v>12.491112490332</v>
       </c>
       <c r="S19">
-        <v>0.0003736153937771186</v>
+        <v>6.882517928222305E-06</v>
       </c>
       <c r="T19">
-        <v>0.0003736153937771186</v>
+        <v>6.77685214685985E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.63472796250509</v>
+        <v>1.664473666666667</v>
       </c>
       <c r="H20">
-        <v>1.63472796250509</v>
+        <v>4.993421</v>
       </c>
       <c r="I20">
-        <v>0.003092380383574708</v>
+        <v>0.003094391632716927</v>
       </c>
       <c r="J20">
-        <v>0.003092380383574708</v>
+        <v>0.003929325676953714</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>154.092684022355</v>
+        <v>235.101616</v>
       </c>
       <c r="N20">
-        <v>154.092684022355</v>
+        <v>470.203232</v>
       </c>
       <c r="O20">
-        <v>0.2794336405807186</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P20">
-        <v>0.2794336405807186</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q20">
-        <v>251.899619388805</v>
+        <v>391.3204488227786</v>
       </c>
       <c r="R20">
-        <v>251.899619388805</v>
+        <v>2347.922692936671</v>
       </c>
       <c r="S20">
-        <v>0.0008641151086426799</v>
+        <v>0.001293689416433006</v>
       </c>
       <c r="T20">
-        <v>0.0008641151086426799</v>
+        <v>0.001273827687854401</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.63472796250509</v>
+        <v>1.664473666666667</v>
       </c>
       <c r="H21">
-        <v>1.63472796250509</v>
+        <v>4.993421</v>
       </c>
       <c r="I21">
-        <v>0.003092380383574708</v>
+        <v>0.003094391632716927</v>
       </c>
       <c r="J21">
-        <v>0.003092380383574708</v>
+        <v>0.003929325676953714</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>1.49602819711562</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N21">
-        <v>1.49602819711562</v>
+        <v>0.184044</v>
       </c>
       <c r="O21">
-        <v>0.002712916633152936</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P21">
-        <v>0.002712916633152936</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q21">
-        <v>2.44559912652098</v>
+        <v>0.1021121305026667</v>
       </c>
       <c r="R21">
-        <v>2.44559912652098</v>
+        <v>0.919009174524</v>
       </c>
       <c r="S21">
-        <v>8.389370178635684E-06</v>
+        <v>3.375785316564224E-07</v>
       </c>
       <c r="T21">
-        <v>8.389370178635684E-06</v>
+        <v>4.985936442552472E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>158.3014568939</v>
+        <v>1.664473666666667</v>
       </c>
       <c r="H22">
-        <v>158.3014568939</v>
+        <v>4.993421</v>
       </c>
       <c r="I22">
-        <v>0.2994555248445317</v>
+        <v>0.003094391632716927</v>
       </c>
       <c r="J22">
-        <v>0.2994555248445317</v>
+        <v>0.003929325676953714</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>234.538651801622</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N22">
-        <v>234.538651801622</v>
+        <v>291.346801</v>
       </c>
       <c r="O22">
-        <v>0.4253153856435704</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P22">
-        <v>0.4253153856435704</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q22">
-        <v>37127.81027812789</v>
+        <v>161.6463593773579</v>
       </c>
       <c r="R22">
-        <v>37127.81027812789</v>
+        <v>1454.817234396221</v>
       </c>
       <c r="S22">
-        <v>0.1273630420323498</v>
+        <v>0.0005343962600485529</v>
       </c>
       <c r="T22">
-        <v>0.1273630420323498</v>
+        <v>0.0007892876880131833</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>158.3014568939</v>
+        <v>1.664473666666667</v>
       </c>
       <c r="H23">
-        <v>158.3014568939</v>
+        <v>4.993421</v>
       </c>
       <c r="I23">
-        <v>0.2994555248445317</v>
+        <v>0.003094391632716927</v>
       </c>
       <c r="J23">
-        <v>0.2994555248445317</v>
+        <v>0.003929325676953714</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>94.69438057492491</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N23">
-        <v>94.69438057492491</v>
+        <v>206.736805</v>
       </c>
       <c r="O23">
-        <v>0.1717199987427602</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P23">
-        <v>0.1717199987427602</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q23">
-        <v>14990.25840467604</v>
+        <v>114.7026559511006</v>
       </c>
       <c r="R23">
-        <v>14990.25840467604</v>
+        <v>1032.323903559905</v>
       </c>
       <c r="S23">
-        <v>0.05142250234981558</v>
+        <v>0.0003792022944037302</v>
       </c>
       <c r="T23">
-        <v>0.05142250234981558</v>
+        <v>0.000560070727688142</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>158.3014568939</v>
+        <v>1.664473666666667</v>
       </c>
       <c r="H24">
-        <v>158.3014568939</v>
+        <v>4.993421</v>
       </c>
       <c r="I24">
-        <v>0.2994555248445317</v>
+        <v>0.003094391632716927</v>
       </c>
       <c r="J24">
-        <v>0.2994555248445317</v>
+        <v>0.003929325676953714</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>66.6246872012414</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N24">
-        <v>66.6246872012414</v>
+        <v>478.929367</v>
       </c>
       <c r="O24">
-        <v>0.1208180583997979</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P24">
-        <v>0.1208180583997979</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q24">
-        <v>10546.78504905689</v>
+        <v>265.7217731882786</v>
       </c>
       <c r="R24">
-        <v>10546.78504905689</v>
+        <v>2391.495958694507</v>
       </c>
       <c r="S24">
-        <v>0.03617963508880876</v>
+        <v>0.0008784653261122332</v>
       </c>
       <c r="T24">
-        <v>0.03617963508880876</v>
+        <v>0.001297467662262224</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>158.3014568939</v>
+        <v>1.664473666666667</v>
       </c>
       <c r="H25">
-        <v>158.3014568939</v>
+        <v>4.993421</v>
       </c>
       <c r="I25">
-        <v>0.2994555248445317</v>
+        <v>0.003094391632716927</v>
       </c>
       <c r="J25">
-        <v>0.2994555248445317</v>
+        <v>0.003929325676953714</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>154.092684022355</v>
+        <v>1.508493</v>
       </c>
       <c r="N25">
-        <v>154.092684022355</v>
+        <v>3.016986</v>
       </c>
       <c r="O25">
-        <v>0.2794336405807186</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P25">
-        <v>0.2794336405807186</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q25">
-        <v>24393.09637743018</v>
+        <v>2.510846874851</v>
       </c>
       <c r="R25">
-        <v>24393.09637743018</v>
+        <v>15.065081249106</v>
       </c>
       <c r="S25">
-        <v>0.08367794749931733</v>
+        <v>8.300757187748445E-06</v>
       </c>
       <c r="T25">
-        <v>0.08367794749931733</v>
+        <v>8.173317491507798E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>158.3014568939</v>
+        <v>163.7857413333333</v>
       </c>
       <c r="H26">
-        <v>158.3014568939</v>
+        <v>491.357224</v>
       </c>
       <c r="I26">
-        <v>0.2994555248445317</v>
+        <v>0.3044909857631906</v>
       </c>
       <c r="J26">
-        <v>0.2994555248445317</v>
+        <v>0.386649264466164</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.49602819711562</v>
+        <v>235.101616</v>
       </c>
       <c r="N26">
-        <v>1.49602819711562</v>
+        <v>470.203232</v>
       </c>
       <c r="O26">
-        <v>0.002712916633152936</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P26">
-        <v>0.002712916633152936</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q26">
-        <v>236.8234431577572</v>
+        <v>38506.29246522466</v>
       </c>
       <c r="R26">
-        <v>236.8234431577572</v>
+        <v>231037.7547913479</v>
       </c>
       <c r="S26">
-        <v>0.0008123978742402725</v>
+        <v>0.1273002297176028</v>
       </c>
       <c r="T26">
-        <v>0.0008123978742402725</v>
+        <v>0.125345817338149</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>47.516454232805</v>
+        <v>163.7857413333333</v>
       </c>
       <c r="H27">
-        <v>47.516454232805</v>
+        <v>491.357224</v>
       </c>
       <c r="I27">
-        <v>0.08988587357457287</v>
+        <v>0.3044909857631906</v>
       </c>
       <c r="J27">
-        <v>0.08988587357457287</v>
+        <v>0.386649264466164</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>234.538651801622</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N27">
-        <v>234.538651801622</v>
+        <v>0.184044</v>
       </c>
       <c r="O27">
-        <v>0.4253153856435704</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P27">
-        <v>0.4253153856435704</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q27">
-        <v>11144.44511415556</v>
+        <v>10.04792765931733</v>
       </c>
       <c r="R27">
-        <v>11144.44511415556</v>
+        <v>90.431348933856</v>
       </c>
       <c r="S27">
-        <v>0.03822984498327867</v>
+        <v>3.321803833417928E-05</v>
       </c>
       <c r="T27">
-        <v>0.03822984498327867</v>
+        <v>4.906207366558955E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>47.516454232805</v>
+        <v>163.7857413333333</v>
       </c>
       <c r="H28">
-        <v>47.516454232805</v>
+        <v>491.357224</v>
       </c>
       <c r="I28">
-        <v>0.08988587357457287</v>
+        <v>0.3044909857631906</v>
       </c>
       <c r="J28">
-        <v>0.08988587357457287</v>
+        <v>0.386649264466164</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>94.69438057492491</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N28">
-        <v>94.69438057492491</v>
+        <v>291.346801</v>
       </c>
       <c r="O28">
-        <v>0.1717199987427602</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P28">
-        <v>0.1717199987427602</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q28">
-        <v>4499.541200692239</v>
+        <v>15906.15059562671</v>
       </c>
       <c r="R28">
-        <v>4499.541200692239</v>
+        <v>143155.3553606404</v>
       </c>
       <c r="S28">
-        <v>0.01543520209721756</v>
+        <v>0.05258508402424691</v>
       </c>
       <c r="T28">
-        <v>0.01543520209721756</v>
+        <v>0.07766663522253296</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>47.516454232805</v>
+        <v>163.7857413333333</v>
       </c>
       <c r="H29">
-        <v>47.516454232805</v>
+        <v>491.357224</v>
       </c>
       <c r="I29">
-        <v>0.08988587357457287</v>
+        <v>0.3044909857631906</v>
       </c>
       <c r="J29">
-        <v>0.08988587357457287</v>
+        <v>0.386649264466164</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>66.6246872012414</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N29">
-        <v>66.6246872012414</v>
+        <v>206.736805</v>
       </c>
       <c r="O29">
-        <v>0.1208180583997979</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P29">
-        <v>0.1208180583997979</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q29">
-        <v>3165.768900172736</v>
+        <v>11286.84695593659</v>
       </c>
       <c r="R29">
-        <v>3165.768900172736</v>
+        <v>101581.6226034293</v>
       </c>
       <c r="S29">
-        <v>0.0108598367228496</v>
+        <v>0.03731385491282381</v>
       </c>
       <c r="T29">
-        <v>0.0108598367228496</v>
+        <v>0.05511147527927354</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>47.516454232805</v>
+        <v>163.7857413333333</v>
       </c>
       <c r="H30">
-        <v>47.516454232805</v>
+        <v>491.357224</v>
       </c>
       <c r="I30">
-        <v>0.08988587357457287</v>
+        <v>0.3044909857631906</v>
       </c>
       <c r="J30">
-        <v>0.08988587357457287</v>
+        <v>0.386649264466164</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>154.092684022355</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N30">
-        <v>154.092684022355</v>
+        <v>478.929367</v>
       </c>
       <c r="O30">
-        <v>0.2794336405807186</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P30">
-        <v>0.2794336405807186</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q30">
-        <v>7321.937967958314</v>
+        <v>26147.26714013302</v>
       </c>
       <c r="R30">
-        <v>7321.937967958314</v>
+        <v>235325.4042611972</v>
       </c>
       <c r="S30">
-        <v>0.02511713688972111</v>
+        <v>0.08644179692013983</v>
       </c>
       <c r="T30">
-        <v>0.02511713688972111</v>
+        <v>0.1276720125859478</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>47.516454232805</v>
+        <v>163.7857413333333</v>
       </c>
       <c r="H31">
-        <v>47.516454232805</v>
+        <v>491.357224</v>
       </c>
       <c r="I31">
-        <v>0.08988587357457287</v>
+        <v>0.3044909857631906</v>
       </c>
       <c r="J31">
-        <v>0.08988587357457287</v>
+        <v>0.386649264466164</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.49602819711562</v>
+        <v>1.508493</v>
       </c>
       <c r="N31">
-        <v>1.49602819711562</v>
+        <v>3.016986</v>
       </c>
       <c r="O31">
-        <v>0.002712916633152936</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P31">
-        <v>0.002712916633152936</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q31">
-        <v>71.08595535923014</v>
+        <v>247.069644301144</v>
       </c>
       <c r="R31">
-        <v>71.08595535923014</v>
+        <v>1482.417865806864</v>
       </c>
       <c r="S31">
-        <v>0.0002438528815059407</v>
+        <v>0.0008168021500430512</v>
       </c>
       <c r="T31">
-        <v>0.0002438528815059407</v>
+        <v>0.000804261966595229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>48.1397765</v>
+      </c>
+      <c r="H32">
+        <v>96.27955299999999</v>
+      </c>
+      <c r="I32">
+        <v>0.08949575147126365</v>
+      </c>
+      <c r="J32">
+        <v>0.07576243216194387</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>235.101616</v>
+      </c>
+      <c r="N32">
+        <v>470.203232</v>
+      </c>
+      <c r="O32">
+        <v>0.4180755282411119</v>
+      </c>
+      <c r="P32">
+        <v>0.3241848074150884</v>
+      </c>
+      <c r="Q32">
+        <v>11317.73924902882</v>
+      </c>
+      <c r="R32">
+        <v>45270.95699611529</v>
+      </c>
+      <c r="S32">
+        <v>0.03741598357168382</v>
+      </c>
+      <c r="T32">
+        <v>0.02456102947971847</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>48.1397765</v>
+      </c>
+      <c r="H33">
+        <v>96.27955299999999</v>
+      </c>
+      <c r="I33">
+        <v>0.08949575147126365</v>
+      </c>
+      <c r="J33">
+        <v>0.07576243216194387</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.06134800000000001</v>
+      </c>
+      <c r="N33">
+        <v>0.184044</v>
+      </c>
+      <c r="O33">
+        <v>0.0001090936674230931</v>
+      </c>
+      <c r="P33">
+        <v>0.0001268903840624867</v>
+      </c>
+      <c r="Q33">
+        <v>2.953279008722</v>
+      </c>
+      <c r="R33">
+        <v>17.719674052332</v>
+      </c>
+      <c r="S33">
+        <v>9.763419746785828E-06</v>
+      </c>
+      <c r="T33">
+        <v>9.613524114537151E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>48.1397765</v>
+      </c>
+      <c r="H34">
+        <v>96.27955299999999</v>
+      </c>
+      <c r="I34">
+        <v>0.08949575147126365</v>
+      </c>
+      <c r="J34">
+        <v>0.07576243216194387</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>97.11560033333332</v>
+      </c>
+      <c r="N34">
+        <v>291.346801</v>
+      </c>
+      <c r="O34">
+        <v>0.1726983276448897</v>
+      </c>
+      <c r="P34">
+        <v>0.2008710279838891</v>
+      </c>
+      <c r="Q34">
+        <v>4675.123294709992</v>
+      </c>
+      <c r="R34">
+        <v>28050.73976825995</v>
+      </c>
+      <c r="S34">
+        <v>0.01545576661040991</v>
+      </c>
+      <c r="T34">
+        <v>0.01521847763092932</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>48.1397765</v>
+      </c>
+      <c r="H35">
+        <v>96.27955299999999</v>
+      </c>
+      <c r="I35">
+        <v>0.08949575147126365</v>
+      </c>
+      <c r="J35">
+        <v>0.07576243216194387</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>68.91226833333333</v>
+      </c>
+      <c r="N35">
+        <v>206.736805</v>
+      </c>
+      <c r="O35">
+        <v>0.1225450231943603</v>
+      </c>
+      <c r="P35">
+        <v>0.1425360923817208</v>
+      </c>
+      <c r="Q35">
+        <v>3317.421195674694</v>
+      </c>
+      <c r="R35">
+        <v>19904.52717404816</v>
+      </c>
+      <c r="S35">
+        <v>0.01096725893984271</v>
+      </c>
+      <c r="T35">
+        <v>0.01079888102969868</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>48.1397765</v>
+      </c>
+      <c r="H36">
+        <v>96.27955299999999</v>
+      </c>
+      <c r="I36">
+        <v>0.08949575147126365</v>
+      </c>
+      <c r="J36">
+        <v>0.07576243216194387</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>159.6431223333333</v>
+      </c>
+      <c r="N36">
+        <v>478.929367</v>
+      </c>
+      <c r="O36">
+        <v>0.2838895105662259</v>
+      </c>
+      <c r="P36">
+        <v>0.3302011003750931</v>
+      </c>
+      <c r="Q36">
+        <v>7685.184228888825</v>
+      </c>
+      <c r="R36">
+        <v>46111.10537333295</v>
+      </c>
+      <c r="S36">
+        <v>0.02540690508293363</v>
+      </c>
+      <c r="T36">
+        <v>0.02501683846696721</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>48.1397765</v>
+      </c>
+      <c r="H37">
+        <v>96.27955299999999</v>
+      </c>
+      <c r="I37">
+        <v>0.08949575147126365</v>
+      </c>
+      <c r="J37">
+        <v>0.07576243216194387</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.508493</v>
+      </c>
+      <c r="N37">
+        <v>3.016986</v>
+      </c>
+      <c r="O37">
+        <v>0.002682516685989175</v>
+      </c>
+      <c r="P37">
+        <v>0.00208008146014619</v>
+      </c>
+      <c r="Q37">
+        <v>72.61851587181449</v>
+      </c>
+      <c r="R37">
+        <v>290.474063487258</v>
+      </c>
+      <c r="S37">
+        <v>0.000240073846646805</v>
+      </c>
+      <c r="T37">
+        <v>0.0001575920305156429</v>
       </c>
     </row>
   </sheetData>
